--- a/metadata_templates/HP_image_metadata_template.xlsx
+++ b/metadata_templates/HP_image_metadata_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrbst20_pitt_edu/Documents/ULS_Work/DigitalCollections/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{315992B9-BEC6-B64F-830C-3813E90FF0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D4413CE-4538-E84C-98F2-5A0FE52D596D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788C734A-CCD4-AC48-BB25-55CD040EA340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1780" windowWidth="22580" windowHeight="14900" xr2:uid="{E3B8F13D-DE85-3546-8BD7-9AF08846EFCA}"/>
+    <workbookView xWindow="0" yWindow="1100" windowWidth="22580" windowHeight="14900" xr2:uid="{E3B8F13D-DE85-3546-8BD7-9AF08846EFCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>source_id</t>
   </si>
   <si>
-    <t>scource_collection_id</t>
-  </si>
-  <si>
     <t>subject_name</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>contributor</t>
+  </si>
+  <si>
+    <t>source_collection_id</t>
   </si>
 </sst>
 </file>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF09D21-D64E-6B44-B18F-A136418E42A3}">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,7 +546,7 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -588,22 +588,22 @@
         <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/metadata_templates/HP_image_metadata_template.xlsx
+++ b/metadata_templates/HP_image_metadata_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788C734A-CCD4-AC48-BB25-55CD040EA340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6BC1B0-5153-CB47-BD8F-54F0544FA504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1100" windowWidth="22580" windowHeight="14900" xr2:uid="{E3B8F13D-DE85-3546-8BD7-9AF08846EFCA}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>creator</t>
   </si>
   <si>
-    <t>subject</t>
-  </si>
-  <si>
     <t>type_of_resource</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>source_collection_id</t>
+  </si>
+  <si>
+    <t>subject_topic</t>
   </si>
 </sst>
 </file>
@@ -502,37 +502,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF09D21-D64E-6B44-B18F-A136418E42A3}">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="80.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="54.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.5" style="1" customWidth="1"/>
-    <col min="20" max="21" width="16.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="80.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="80.6640625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="20" width="17.33203125" style="1"/>
+    <col min="21" max="21" width="20.33203125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="17.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -540,70 +521,70 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/metadata_templates/HP_image_metadata_template.xlsx
+++ b/metadata_templates/HP_image_metadata_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6BC1B0-5153-CB47-BD8F-54F0544FA504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E08DECC-4888-764A-AB72-10CCD4252108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1100" windowWidth="22580" windowHeight="14900" xr2:uid="{E3B8F13D-DE85-3546-8BD7-9AF08846EFCA}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>format</t>
   </si>
   <si>
-    <t>subject_location</t>
-  </si>
-  <si>
     <t>source_id</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>subject_topic</t>
+  </si>
+  <si>
+    <t>subject_geographic</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,7 +513,7 @@
     <col min="22" max="16384" width="17.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -521,13 +521,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -554,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
@@ -569,22 +569,22 @@
         <v>14</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/metadata_templates/HP_image_metadata_template.xlsx
+++ b/metadata_templates/HP_image_metadata_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrbst20_pitt_edu/Documents/Documents/GitHub/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E08DECC-4888-764A-AB72-10CCD4252108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2E08DECC-4888-764A-AB72-10CCD4252108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D6F0D82-C3D4-431E-86AA-B2B05BFDCEF9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1100" windowWidth="22580" windowHeight="14900" xr2:uid="{E3B8F13D-DE85-3546-8BD7-9AF08846EFCA}"/>
+    <workbookView xWindow="28680" yWindow="-4575" windowWidth="29040" windowHeight="15840" xr2:uid="{E3B8F13D-DE85-3546-8BD7-9AF08846EFCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{21186FDD-31CE-BE4D-BE45-E199DA67171B}" name="hpicusc-csv" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="1" xr16:uid="{21186FDD-31CE-BE4D-BE45-E199DA67171B}" name="hpicusc-csv" type="6" refreshedVersion="7" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="/Users/michaelbolam/Downloads/hpicusc-csv.csv" tab="0" comma="1">
       <textFields count="15">
         <textField type="text"/>
@@ -503,17 +503,17 @@
   <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="20" width="17.33203125" style="1"/>
     <col min="21" max="21" width="20.33203125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="17.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>

--- a/metadata_templates/HP_image_metadata_template.xlsx
+++ b/metadata_templates/HP_image_metadata_template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrbst20_pitt_edu/Documents/Documents/GitHub/islandora_metadata/metadata_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/str51_pitt_edu/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2E08DECC-4888-764A-AB72-10CCD4252108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D6F0D82-C3D4-431E-86AA-B2B05BFDCEF9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D064F2E-8A3A-4746-9DC4-711C9835E84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4575" windowWidth="29040" windowHeight="15840" xr2:uid="{E3B8F13D-DE85-3546-8BD7-9AF08846EFCA}"/>
+    <workbookView xWindow="4944" yWindow="576" windowWidth="15696" windowHeight="10200" xr2:uid="{E3B8F13D-DE85-3546-8BD7-9AF08846EFCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="hpicusc_csv" localSheetId="0">Sheet1!$I$1:$W$1</definedName>
+    <definedName name="hpicusc_csv" localSheetId="0">Sheet1!$H$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +153,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,9 +184,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,92 +513,346 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF09D21-D64E-6B44-B18F-A136418E42A3}">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.296875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="20" width="17.33203125" style="1"/>
-    <col min="21" max="21" width="20.33203125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="17.33203125" style="1"/>
+    <col min="1" max="1" width="28.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" style="1"/>
+    <col min="4" max="4" width="24.69921875" style="1" customWidth="1"/>
+    <col min="5" max="20" width="17.296875" style="1"/>
+    <col min="21" max="21" width="20.296875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="17.296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010055C9D96A2DC5254B827CE73D4DAA0E2B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c3a22f41b17e6b5349257a5ce189c60">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2642b2-f2dc-4604-abf5-f3db2d26ad74" xmlns:ns3="2c01d2fb-b47e-4e9a-9661-e0b9a6ff4f17" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78a5aa5b4e1209e8bf454b7ffe0aff24" ns2:_="" ns3:_="">
+    <xsd:import namespace="ee2642b2-f2dc-4604-abf5-f3db2d26ad74"/>
+    <xsd:import namespace="2c01d2fb-b47e-4e9a-9661-e0b9a6ff4f17"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ee2642b2-f2dc-4604-abf5-f3db2d26ad74" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7b90debd-ee09-4e04-a4c4-812a7ed26ded" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="21" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2c01d2fb-b47e-4e9a-9661-e0b9a6ff4f17" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9f30e8c8-65c3-40ee-a51e-2690cce48dc3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="2c01d2fb-b47e-4e9a-9661-e0b9a6ff4f17">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7CD010C-298A-4D89-BBE2-BBD5AF18C5CD}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E386AECA-EF69-402A-A547-92BC2129FA1C}"/>
 </file>